--- a/BEMFSimulation/ExcelResults/PhaseVoltage3500.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage3500.xlsx
@@ -408,13 +408,13 @@
         <v>4.761904761904762e-05</v>
       </c>
       <c r="B2">
-        <v>2.569917592833093</v>
+        <v>3.594903743939087</v>
       </c>
       <c r="C2">
-        <v>230.1638636211611</v>
+        <v>233.331343054901</v>
       </c>
       <c r="D2">
-        <v>-242.3842757735216</v>
+        <v>-248.2005763375292</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>9.523809523809524e-05</v>
       </c>
       <c r="B3">
-        <v>14.60632338673279</v>
+        <v>14.67341724019917</v>
       </c>
       <c r="C3">
-        <v>219.613114820301</v>
+        <v>225.4236839077792</v>
       </c>
       <c r="D3">
-        <v>-239.5236501638871</v>
+        <v>-248.3236985475436</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001428571428571429</v>
       </c>
       <c r="B4">
-        <v>43.62994425425779</v>
+        <v>43.41330928925621</v>
       </c>
       <c r="C4">
-        <v>201.664843298872</v>
+        <v>211.0751370508238</v>
       </c>
       <c r="D4">
-        <v>-229.7674902210893</v>
+        <v>-238.2391979938519</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001904761904761905</v>
       </c>
       <c r="B5">
-        <v>78.49724043225794</v>
+        <v>79.11895124482308</v>
       </c>
       <c r="C5">
-        <v>174.8371533650616</v>
+        <v>173.6045923532299</v>
       </c>
       <c r="D5">
-        <v>-222.0351025928123</v>
+        <v>-224.2456199396379</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002380952380952381</v>
       </c>
       <c r="B6">
-        <v>98.96503023724264</v>
+        <v>103.3579099375413</v>
       </c>
       <c r="C6">
-        <v>145.3992034440432</v>
+        <v>148.1378821104323</v>
       </c>
       <c r="D6">
-        <v>-228.2247717625599</v>
+        <v>-237.1214362475035</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0002857142857142857</v>
       </c>
       <c r="B7">
-        <v>107.0819925541988</v>
+        <v>109.7867669342736</v>
       </c>
       <c r="C7">
-        <v>127.7882387078002</v>
+        <v>132.37451223688</v>
       </c>
       <c r="D7">
-        <v>-233.9794498911721</v>
+        <v>-241.7519247442667</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B8">
-        <v>116.0869596435862</v>
+        <v>116.2100246956756</v>
       </c>
       <c r="C8">
-        <v>121.730622701014</v>
+        <v>124.6584381112839</v>
       </c>
       <c r="D8">
-        <v>-241.5563348466763</v>
+        <v>-244.1252129950259</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.000380952380952381</v>
       </c>
       <c r="B9">
-        <v>121.8285344830034</v>
+        <v>123.9009985787126</v>
       </c>
       <c r="C9">
-        <v>116.4656886969144</v>
+        <v>117.4157311675852</v>
       </c>
       <c r="D9">
-        <v>-242.4072481746625</v>
+        <v>-244.6021211212721</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0004285714285714287</v>
       </c>
       <c r="B10">
-        <v>127.6453964761431</v>
+        <v>131.8369828885747</v>
       </c>
       <c r="C10">
-        <v>107.214853080955</v>
+        <v>108.9062606707897</v>
       </c>
       <c r="D10">
-        <v>-234.7799002760389</v>
+        <v>-239.9755244641887</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0004761904761904763</v>
       </c>
       <c r="B11">
-        <v>145.0961532192533</v>
+        <v>150.0575031048054</v>
       </c>
       <c r="C11">
-        <v>99.27075354237935</v>
+        <v>104.0220742431976</v>
       </c>
       <c r="D11">
-        <v>-229.109648245802</v>
+        <v>-240.7782892068601</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0005238095238095239</v>
       </c>
       <c r="B12">
-        <v>174.7270173840327</v>
+        <v>176.3946477299289</v>
       </c>
       <c r="C12">
-        <v>78.79791198045055</v>
+        <v>77.70745347137613</v>
       </c>
       <c r="D12">
-        <v>-222.74019393919</v>
+        <v>-226.9546924968363</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0005714285714285716</v>
       </c>
       <c r="B13">
-        <v>201.2652238053826</v>
+        <v>206.5589140110117</v>
       </c>
       <c r="C13">
-        <v>44.22145332553301</v>
+        <v>43.00986744917697</v>
       </c>
       <c r="D13">
-        <v>-230.0186547527842</v>
+        <v>-235.0106444830764</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0006190476190476192</v>
       </c>
       <c r="B14">
-        <v>219.5014101361735</v>
+        <v>228.01191758366</v>
       </c>
       <c r="C14">
-        <v>14.99753929670355</v>
+        <v>14.7888708533956</v>
       </c>
       <c r="D14">
-        <v>-239.1209781814624</v>
+        <v>-248.0495507558699</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0006666666666666669</v>
       </c>
       <c r="B15">
-        <v>229.7496949146758</v>
+        <v>232.0655992292736</v>
       </c>
       <c r="C15">
-        <v>2.802468334030777</v>
+        <v>3.920792195343734</v>
       </c>
       <c r="D15">
-        <v>-241.4097770640118</v>
+        <v>-246.4043101440132</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0007142857142857145</v>
       </c>
       <c r="B16">
-        <v>241.7131662998745</v>
+        <v>244.7839899222045</v>
       </c>
       <c r="C16">
-        <v>-0.007508675062217751</v>
+        <v>0.06791716852756757</v>
       </c>
       <c r="D16">
-        <v>-241.3421099240582</v>
+        <v>-245.6191463804078</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0007619047619047621</v>
       </c>
       <c r="B17">
-        <v>241.7780616272164</v>
+        <v>246.8689372688532</v>
       </c>
       <c r="C17">
-        <v>-2.603359235804153</v>
+        <v>-3.445998880820742</v>
       </c>
       <c r="D17">
-        <v>-230.2670876861384</v>
+        <v>-233.3748164776993</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0008095238095238098</v>
       </c>
       <c r="B18">
-        <v>238.9801065654638</v>
+        <v>248.7005442140158</v>
       </c>
       <c r="C18">
-        <v>-14.44218722489987</v>
+        <v>-14.30278166625852</v>
       </c>
       <c r="D18">
-        <v>-219.5786344389603</v>
+        <v>-225.9440468855151</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0008571428571428574</v>
       </c>
       <c r="B19">
-        <v>230.3737873948947</v>
+        <v>239.5984795160642</v>
       </c>
       <c r="C19">
-        <v>-43.43750352281658</v>
+        <v>-43.18859632943796</v>
       </c>
       <c r="D19">
-        <v>-202.0361996838456</v>
+        <v>-210.9794443171785</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0009047619047619051</v>
       </c>
       <c r="B20">
-        <v>222.8501577295267</v>
+        <v>226.0226226637006</v>
       </c>
       <c r="C20">
-        <v>-78.53818766818566</v>
+        <v>-78.34034468511581</v>
       </c>
       <c r="D20">
-        <v>-174.9674461713684</v>
+        <v>-173.8185389210983</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0009523809523809527</v>
       </c>
       <c r="B21">
-        <v>228.8517239995449</v>
+        <v>238.5158948565628</v>
       </c>
       <c r="C21">
-        <v>-99.13127950182692</v>
+        <v>-103.1815953614824</v>
       </c>
       <c r="D21">
-        <v>-145.4150654039476</v>
+        <v>-148.8188720453475</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.001</v>
       </c>
       <c r="B22">
-        <v>234.440843290512</v>
+        <v>241.6510694646236</v>
       </c>
       <c r="C22">
-        <v>-107.0574418764142</v>
+        <v>-109.9368282791395</v>
       </c>
       <c r="D22">
-        <v>-128.0062152128371</v>
+        <v>-132.9704056518586</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001047619047619048</v>
       </c>
       <c r="B23">
-        <v>241.6553576060621</v>
+        <v>244.1323228108455</v>
       </c>
       <c r="C23">
-        <v>-116.0799139412146</v>
+        <v>-116.9026393714647</v>
       </c>
       <c r="D23">
-        <v>-121.8942483522603</v>
+        <v>-124.5992165114771</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001095238095238096</v>
       </c>
       <c r="B24">
-        <v>242.145979458701</v>
+        <v>245.6352623033635</v>
       </c>
       <c r="C24">
-        <v>-121.8516163322927</v>
+        <v>-124.5997075175651</v>
       </c>
       <c r="D24">
-        <v>-116.3899993109733</v>
+        <v>-117.1698326608389</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.001142857142857143</v>
       </c>
       <c r="B25">
-        <v>235.0832756293995</v>
+        <v>240.8677082826186</v>
       </c>
       <c r="C25">
-        <v>-127.8265636855838</v>
+        <v>-131.822210941159</v>
       </c>
       <c r="D25">
-        <v>-107.1078470792546</v>
+        <v>-108.9827870254564</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001190476190476191</v>
       </c>
       <c r="B26">
-        <v>229.7238473511345</v>
+        <v>240.5276206869225</v>
       </c>
       <c r="C26">
-        <v>-145.2337127689645</v>
+        <v>-149.2993398736213</v>
       </c>
       <c r="D26">
-        <v>-99.3281323730484</v>
+        <v>-104.3541513648246</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001238095238095238</v>
       </c>
       <c r="B27">
-        <v>223.5503787105654</v>
+        <v>225.8207691661056</v>
       </c>
       <c r="C27">
-        <v>-174.7956515963531</v>
+        <v>-175.823786844405</v>
       </c>
       <c r="D27">
-        <v>-78.89732306729496</v>
+        <v>-78.69516441782923</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001285714285714286</v>
       </c>
       <c r="B28">
-        <v>231.1010778098692</v>
+        <v>235.1263752869395</v>
       </c>
       <c r="C28">
-        <v>-201.6966227742478</v>
+        <v>-207.1215017842405</v>
       </c>
       <c r="D28">
-        <v>-44.15377365774051</v>
+        <v>-43.288115997707</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B29">
-        <v>239.6036196748866</v>
+        <v>249.4596769751276</v>
       </c>
       <c r="C29">
-        <v>-219.8620757238538</v>
+        <v>-228.5249207795972</v>
       </c>
       <c r="D29">
-        <v>-14.83675642339041</v>
+        <v>-14.42823027445792</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001380952380952381</v>
       </c>
       <c r="B30">
-        <v>241.2839006040782</v>
+        <v>247.7204979911551</v>
       </c>
       <c r="C30">
-        <v>-229.8727596067403</v>
+        <v>-232.392650495243</v>
       </c>
       <c r="D30">
-        <v>-2.653965297124278</v>
+        <v>-3.571494717211215</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001428571428571429</v>
       </c>
       <c r="B31">
-        <v>241.1254961527459</v>
+        <v>244.81183920956</v>
       </c>
       <c r="C31">
-        <v>-241.5509308028052</v>
+        <v>-244.5609761567083</v>
       </c>
       <c r="D31">
-        <v>0.08693002228388202</v>
+        <v>0.07167552049415493</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001476190476190477</v>
       </c>
       <c r="B32">
-        <v>229.92929059783</v>
+        <v>230.9186203297764</v>
       </c>
       <c r="C32">
-        <v>-241.7566814782938</v>
+        <v>-246.3491165888481</v>
       </c>
       <c r="D32">
-        <v>2.632325980092692</v>
+        <v>3.276264039682106</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001523809523809524</v>
       </c>
       <c r="B33">
-        <v>219.211552939656</v>
+        <v>224.8167989589744</v>
       </c>
       <c r="C33">
-        <v>-239.0865845051773</v>
+        <v>-248.4817138460332</v>
       </c>
       <c r="D33">
-        <v>14.47373064165189</v>
+        <v>14.02601093995363</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001571428571428572</v>
       </c>
       <c r="B34">
-        <v>201.7292092209921</v>
+        <v>211.7257706071694</v>
       </c>
       <c r="C34">
-        <v>-230.3249667524958</v>
+        <v>-239.2067409355643</v>
       </c>
       <c r="D34">
-        <v>43.3499702271567</v>
+        <v>43.16612143539366</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.00161904761904762</v>
       </c>
       <c r="B35">
-        <v>174.8889685286192</v>
+        <v>174.1201993016454</v>
       </c>
       <c r="C35">
-        <v>-222.6730969609656</v>
+        <v>-224.8081482526327</v>
       </c>
       <c r="D35">
-        <v>78.43010924406742</v>
+        <v>78.44511893742579</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B36">
-        <v>145.5114451172574</v>
+        <v>148.0051311563804</v>
       </c>
       <c r="C36">
-        <v>-228.6599782817679</v>
+        <v>-237.5694048340193</v>
       </c>
       <c r="D36">
-        <v>99.03333641678979</v>
+        <v>103.0631977058458</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001714285714285715</v>
       </c>
       <c r="B37">
-        <v>127.9954828773031</v>
+        <v>132.279969040477</v>
       </c>
       <c r="C37">
-        <v>-234.5929691863752</v>
+        <v>-241.8605878581497</v>
       </c>
       <c r="D37">
-        <v>107.13020134454</v>
+        <v>110.0488551057544</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001761904761904762</v>
       </c>
       <c r="B38">
-        <v>121.8221015270232</v>
+        <v>124.6562493627779</v>
       </c>
       <c r="C38">
-        <v>-241.8291783277762</v>
+        <v>-244.0660096653676</v>
       </c>
       <c r="D38">
-        <v>116.1480035775548</v>
+        <v>116.6807010309808</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.00180952380952381</v>
       </c>
       <c r="B39">
-        <v>116.4748427091685</v>
+        <v>117.7138418664277</v>
       </c>
       <c r="C39">
-        <v>-242.529307205069</v>
+        <v>-245.1552966624172</v>
       </c>
       <c r="D39">
-        <v>122.0863472620229</v>
+        <v>124.4329325230716</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001857142857142858</v>
       </c>
       <c r="B40">
-        <v>107.0865968707095</v>
+        <v>109.1452539735376</v>
       </c>
       <c r="C40">
-        <v>-234.6614689838506</v>
+        <v>-240.4508574248171</v>
       </c>
       <c r="D40">
-        <v>127.7379115446956</v>
+        <v>131.7964189141891</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001904761904761905</v>
       </c>
       <c r="B41">
-        <v>99.30494103407503</v>
+        <v>104.4565673825042</v>
       </c>
       <c r="C41">
-        <v>-229.2259048850267</v>
+        <v>-241.5066140740084</v>
       </c>
       <c r="D41">
-        <v>145.1405293887936</v>
+        <v>149.9883173639454</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001952380952380953</v>
       </c>
       <c r="B42">
-        <v>78.95401507112371</v>
+        <v>78.08787848984366</v>
       </c>
       <c r="C42">
-        <v>-223.0255193635796</v>
+        <v>-226.6205830357071</v>
       </c>
       <c r="D42">
-        <v>174.7708027367454</v>
+        <v>176.4863378942074</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.002</v>
       </c>
       <c r="B43">
-        <v>44.35541187474945</v>
+        <v>43.01149515919915</v>
       </c>
       <c r="C43">
-        <v>-230.2376423502616</v>
+        <v>-235.4877284364707</v>
       </c>
       <c r="D43">
-        <v>201.7109668868994</v>
+        <v>207.4402956043308</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.002047619047619048</v>
       </c>
       <c r="B44">
-        <v>15.04768030240558</v>
+        <v>14.39417080919131</v>
       </c>
       <c r="C44">
-        <v>-239.3083070348702</v>
+        <v>-249.3553319842704</v>
       </c>
       <c r="D44">
-        <v>220.1092847071598</v>
+        <v>228.3715351409504</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.002095238095238096</v>
       </c>
       <c r="B45">
-        <v>2.809541259315734</v>
+        <v>3.621758470974124</v>
       </c>
       <c r="C45">
-        <v>-241.6656888383262</v>
+        <v>-246.5018408208665</v>
       </c>
       <c r="D45">
-        <v>230.4410771519838</v>
+        <v>231.0958195545216</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.002142857142857143</v>
       </c>
       <c r="B46">
-        <v>0.0339604219534162</v>
+        <v>0.2371429354731253</v>
       </c>
       <c r="C46">
-        <v>-241.7133696938247</v>
+        <v>-246.165136116764</v>
       </c>
       <c r="D46">
-        <v>242.3705884142749</v>
+        <v>246.230042822589</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.002190476190476191</v>
       </c>
       <c r="B47">
-        <v>-2.578620150298916</v>
+        <v>-3.604624577757398</v>
       </c>
       <c r="C47">
-        <v>-230.1417819134048</v>
+        <v>-233.3158664879883</v>
       </c>
       <c r="D47">
-        <v>242.3783580224466</v>
+        <v>248.2006960534402</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.002238095238095239</v>
       </c>
       <c r="B48">
-        <v>-14.63410435747864</v>
+        <v>-14.7003885089584</v>
       </c>
       <c r="C48">
-        <v>-219.601272135715</v>
+        <v>-225.4227798249184</v>
       </c>
       <c r="D48">
-        <v>239.5193179953818</v>
+        <v>248.3242206042992</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.002285714285714286</v>
       </c>
       <c r="B49">
-        <v>-43.68435354721953</v>
+        <v>-43.46732244084016</v>
       </c>
       <c r="C49">
-        <v>-201.6282330431785</v>
+        <v>-211.0204399812611</v>
       </c>
       <c r="D49">
-        <v>229.7481957226956</v>
+        <v>238.2080391021292</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B50">
-        <v>-78.5367906437048</v>
+        <v>-79.16320103488022</v>
       </c>
       <c r="C50">
-        <v>-174.7941494545304</v>
+        <v>-173.5620263104283</v>
       </c>
       <c r="D50">
-        <v>222.0350195856249</v>
+        <v>224.2496707214804</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002380952380952382</v>
       </c>
       <c r="B51">
-        <v>-98.98475463647583</v>
+        <v>-103.3809540631352</v>
       </c>
       <c r="C51">
-        <v>-145.3638550020434</v>
+        <v>-148.1073182468163</v>
       </c>
       <c r="D51">
-        <v>228.2372161752647</v>
+        <v>237.1413253270462</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002428571428571429</v>
       </c>
       <c r="B52">
-        <v>-107.0912484545493</v>
+        <v>-109.7882300868692</v>
       </c>
       <c r="C52">
-        <v>-127.7719430439954</v>
+        <v>-132.3577895144988</v>
       </c>
       <c r="D52">
-        <v>233.9865201107998</v>
+        <v>241.7480744450215</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002476190476190477</v>
       </c>
       <c r="B53">
-        <v>-116.100386820787</v>
+        <v>-116.2250202413541</v>
       </c>
       <c r="C53">
-        <v>-121.7265771642638</v>
+        <v>-124.6535218192936</v>
       </c>
       <c r="D53">
-        <v>241.5672990232557</v>
+        <v>244.1356994749495</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002523809523809525</v>
       </c>
       <c r="B54">
-        <v>-121.8332620624664</v>
+        <v>-123.9085251142171</v>
       </c>
       <c r="C54">
-        <v>-116.4532745645501</v>
+        <v>-117.4004737533713</v>
       </c>
       <c r="D54">
-        <v>242.3986169761384</v>
+        <v>244.5942081684134</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.002571428571428572</v>
       </c>
       <c r="B55">
-        <v>-127.6613704726492</v>
+        <v>-131.8547622261841</v>
       </c>
       <c r="C55">
-        <v>-107.2049110248127</v>
+        <v>-108.8956819292918</v>
       </c>
       <c r="D55">
-        <v>234.7720121914848</v>
+        <v>239.9709271938534</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.00261904761904762</v>
       </c>
       <c r="B56">
-        <v>-145.1303762228881</v>
+        <v>-150.0913312184218</v>
       </c>
       <c r="C56">
-        <v>-99.25087362310641</v>
+        <v>-104.0057260906816</v>
       </c>
       <c r="D56">
-        <v>229.0964146137349</v>
+        <v>240.7716402536202</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B57">
-        <v>-174.7708604871733</v>
+        <v>-176.432819079574</v>
       </c>
       <c r="C57">
-        <v>-78.75895261668971</v>
+        <v>-77.66032626572502</v>
       </c>
       <c r="D57">
-        <v>222.740593597835</v>
+        <v>226.9410438468441</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002714285714285715</v>
       </c>
       <c r="B58">
-        <v>-201.3005150483764</v>
+        <v>-206.6039058024946</v>
       </c>
       <c r="C58">
-        <v>-44.1667397815568</v>
+        <v>-42.95839382510068</v>
       </c>
       <c r="D58">
-        <v>230.0358785436618</v>
+        <v>235.0374176122476</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002761904761904763</v>
       </c>
       <c r="B59">
-        <v>-219.5165989461302</v>
+        <v>-228.0228923933056</v>
       </c>
       <c r="C59">
-        <v>-14.96985451354935</v>
+        <v>-14.76231433951383</v>
       </c>
       <c r="D59">
-        <v>239.127924860328</v>
+        <v>248.0553385460317</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.00280952380952381</v>
       </c>
       <c r="B60">
-        <v>-229.7680959312303</v>
+        <v>-232.079819852531</v>
       </c>
       <c r="C60">
-        <v>-2.793213973702552</v>
+        <v>-3.911449152749422</v>
       </c>
       <c r="D60">
-        <v>241.4112271440271</v>
+        <v>246.4022368201632</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002857142857142858</v>
       </c>
       <c r="B61">
-        <v>-241.7225051383516</v>
+        <v>-244.796877414271</v>
       </c>
       <c r="C61">
-        <v>0.008372694144248571</v>
+        <v>-0.06549323148655195</v>
       </c>
       <c r="D61">
-        <v>241.3349979788162</v>
+        <v>245.6083126756644</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002904761904761906</v>
       </c>
       <c r="B62">
-        <v>-241.7745019829695</v>
+        <v>-246.8690440850439</v>
       </c>
       <c r="C62">
-        <v>2.612192197174068</v>
+        <v>3.454640260859426</v>
       </c>
       <c r="D62">
-        <v>230.2478156115468</v>
+        <v>233.3583972312951</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002952380952380953</v>
       </c>
       <c r="B63">
-        <v>-238.9741588981656</v>
+        <v>-248.7047672621306</v>
       </c>
       <c r="C63">
-        <v>14.46964277252227</v>
+        <v>14.32998773753545</v>
       </c>
       <c r="D63">
-        <v>219.5647308526561</v>
+        <v>225.9445938061733</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.003000000000000001</v>
       </c>
       <c r="B64">
-        <v>-230.3570470396486</v>
+        <v>-239.5677730255741</v>
       </c>
       <c r="C64">
-        <v>43.49223537155708</v>
+        <v>43.24238480109086</v>
       </c>
       <c r="D64">
-        <v>202.0008967948954</v>
+        <v>210.9235075804403</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.003047619047619049</v>
       </c>
       <c r="B65">
-        <v>-222.8495323758782</v>
+        <v>-226.0264054073066</v>
       </c>
       <c r="C65">
-        <v>78.5784646545242</v>
+        <v>78.38464402391429</v>
       </c>
       <c r="D65">
-        <v>174.9236608075538</v>
+        <v>173.7762540146916</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.003095238095238096</v>
       </c>
       <c r="B66">
-        <v>-228.8632865689903</v>
+        <v>-238.5356950493239</v>
       </c>
       <c r="C66">
-        <v>99.14996813250318</v>
+        <v>103.2058482705068</v>
       </c>
       <c r="D66">
-        <v>145.3792140112498</v>
+        <v>148.7904231396366</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.003142857142857144</v>
       </c>
       <c r="B67">
-        <v>-234.4486905333018</v>
+        <v>-241.6463651904201</v>
       </c>
       <c r="C67">
-        <v>107.0675509896676</v>
+        <v>109.9398267515395</v>
       </c>
       <c r="D67">
-        <v>127.9909487783667</v>
+        <v>132.9531284835434</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.003190476190476191</v>
       </c>
       <c r="B68">
-        <v>-241.6651632258112</v>
+        <v>-244.1425547480471</v>
       </c>
       <c r="C68">
-        <v>116.0929450680991</v>
+        <v>116.916541185707</v>
       </c>
       <c r="D68">
-        <v>121.8894176787372</v>
+        <v>124.5925020651795</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.003238095238095239</v>
       </c>
       <c r="B69">
-        <v>-242.1374840819767</v>
+        <v>-245.6277348153765</v>
       </c>
       <c r="C69">
-        <v>121.856694852584</v>
+        <v>124.6068730088479</v>
       </c>
       <c r="D69">
-        <v>116.3776197311529</v>
+        <v>117.1545889611875</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.003285714285714287</v>
       </c>
       <c r="B70">
-        <v>-235.0756494652642</v>
+        <v>-240.8626445518112</v>
       </c>
       <c r="C70">
-        <v>127.842239039102</v>
+        <v>131.8385897291399</v>
       </c>
       <c r="D70">
-        <v>107.0973202750761</v>
+        <v>108.9728509776872</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.003333333333333334</v>
       </c>
       <c r="B71">
-        <v>-229.711288436146</v>
+        <v>-240.5202231459224</v>
       </c>
       <c r="C71">
-        <v>145.2679863654905</v>
+        <v>149.333572180937</v>
       </c>
       <c r="D71">
-        <v>99.3087925484229</v>
+        <v>104.3393183081409</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.003380952380952382</v>
       </c>
       <c r="B72">
-        <v>-223.550978139371</v>
+        <v>-225.8049427844989</v>
       </c>
       <c r="C72">
-        <v>174.8398332255938</v>
+        <v>175.8618967597075</v>
       </c>
       <c r="D72">
-        <v>78.85816384518319</v>
+        <v>78.64752789513881</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.00342857142857143</v>
       </c>
       <c r="B73">
-        <v>-231.1191654676679</v>
+        <v>-235.1567119958977</v>
       </c>
       <c r="C73">
-        <v>201.7326838108101</v>
+        <v>207.1675670972037</v>
       </c>
       <c r="D73">
-        <v>44.09926555249233</v>
+        <v>43.23497431094093</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.003476190476190477</v>
       </c>
       <c r="B74">
-        <v>-239.606728006504</v>
+        <v>-249.4658024217814</v>
       </c>
       <c r="C74">
-        <v>219.8747312878338</v>
+        <v>228.5357572775746</v>
       </c>
       <c r="D74">
-        <v>14.80850691577642</v>
+        <v>14.40165864294823</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.003523809523809525</v>
       </c>
       <c r="B75">
-        <v>-241.2879423696021</v>
+        <v>-247.7163117981665</v>
       </c>
       <c r="C75">
-        <v>229.8935958081219</v>
+        <v>232.4057494383982</v>
       </c>
       <c r="D75">
-        <v>2.644896359377507</v>
+        <v>3.562358074484795</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.003571428571428573</v>
       </c>
       <c r="B76">
-        <v>-241.1177085670458</v>
+        <v>-244.7995283741392</v>
       </c>
       <c r="C76">
-        <v>241.5595800306466</v>
+        <v>244.5741811307298</v>
       </c>
       <c r="D76">
-        <v>-0.08793737885928743</v>
+        <v>-0.07392503114787841</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.00361904761904762</v>
       </c>
       <c r="B77">
-        <v>-229.9076273634408</v>
+        <v>-230.9008030255541</v>
       </c>
       <c r="C77">
-        <v>241.7511533636817</v>
+        <v>246.3492838865955</v>
       </c>
       <c r="D77">
-        <v>-2.640649983435717</v>
+        <v>-3.284524854686721</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.003666666666666668</v>
       </c>
       <c r="B78">
-        <v>-219.1999353990097</v>
+        <v>-224.8185893609291</v>
       </c>
       <c r="C78">
-        <v>239.0830063925688</v>
+        <v>248.4841550836566</v>
       </c>
       <c r="D78">
-        <v>-14.50137617762792</v>
+        <v>-14.05225467360376</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.003714285714285716</v>
       </c>
       <c r="B79">
-        <v>-201.6932547762803</v>
+        <v>-211.6736179887519</v>
       </c>
       <c r="C79">
-        <v>230.3073261204769</v>
+        <v>239.1774900942978</v>
       </c>
       <c r="D79">
-        <v>-43.4046182007532</v>
+        <v>-43.22077058996475</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.003761904761904763</v>
       </c>
       <c r="B80">
-        <v>-174.8460575721729</v>
+        <v>-174.075569696031</v>
       </c>
       <c r="C80">
-        <v>222.6725180440595</v>
+        <v>224.8105476500799</v>
       </c>
       <c r="D80">
-        <v>-78.47010996335332</v>
+        <v>-78.48980881564472</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.003809523809523811</v>
       </c>
       <c r="B81">
-        <v>-145.474660753735</v>
+        <v>-147.9761695744851</v>
       </c>
       <c r="C81">
-        <v>228.670813429959</v>
+        <v>237.5914600497139</v>
       </c>
       <c r="D81">
-        <v>-99.05196384787723</v>
+        <v>-103.0879092383769</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003857142857142858</v>
       </c>
       <c r="B82">
-        <v>-127.9799583092344</v>
+        <v>-132.2623338106292</v>
       </c>
       <c r="C82">
-        <v>234.6007805499238</v>
+        <v>241.8548177012498</v>
       </c>
       <c r="D82">
-        <v>-107.1398386331917</v>
+        <v>-110.0507712226948</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003904761904761906</v>
       </c>
       <c r="B83">
-        <v>-121.8169632214456</v>
+        <v>-124.651554105089</v>
       </c>
       <c r="C83">
-        <v>241.8380652543709</v>
+        <v>244.0765940158531</v>
       </c>
       <c r="D83">
-        <v>-116.1606819902128</v>
+        <v>-116.6950682257748</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.003952380952380954</v>
       </c>
       <c r="B84">
-        <v>-116.4623306131605</v>
+        <v>-117.6985638186612</v>
       </c>
       <c r="C84">
-        <v>242.5208498372068</v>
+        <v>245.1469507943096</v>
       </c>
       <c r="D84">
-        <v>-122.091231969544</v>
+        <v>-124.4398968115927</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.004000000000000001</v>
       </c>
       <c r="B85">
-        <v>-107.0771141468991</v>
+        <v>-109.1348614588359</v>
       </c>
       <c r="C85">
-        <v>234.6544095600609</v>
+        <v>240.447312909236</v>
       </c>
       <c r="D85">
-        <v>-127.7542175299352</v>
+        <v>-131.8136622980873</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.004047619047619048</v>
       </c>
       <c r="B86">
-        <v>-99.28591700716707</v>
+        <v>-104.440931689518</v>
       </c>
       <c r="C86">
-        <v>229.2145394057708</v>
+        <v>241.4995194707652</v>
       </c>
       <c r="D86">
-        <v>-145.1759838785552</v>
+        <v>-150.0224271275617</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.004095238095238095</v>
       </c>
       <c r="B87">
-        <v>-78.91454471555475</v>
+        <v>-78.04017224188671</v>
       </c>
       <c r="C87">
-        <v>223.0246433735717</v>
+        <v>226.6065997946364</v>
       </c>
       <c r="D87">
-        <v>-174.8143084464515</v>
+        <v>-176.5259794280304</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.004142857142857143</v>
       </c>
       <c r="B88">
-        <v>-44.30148318393928</v>
+        <v>-42.95881257484715</v>
       </c>
       <c r="C88">
-        <v>230.2557495535914</v>
+        <v>235.5163683310305</v>
       </c>
       <c r="D88">
-        <v>-201.7472550246077</v>
+        <v>-207.4851390230879</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.00419047619047619</v>
       </c>
       <c r="B89">
-        <v>-15.01934864957555</v>
+        <v>-14.36740254971695</v>
       </c>
       <c r="C89">
-        <v>239.3134331635939</v>
+        <v>249.3598513727945</v>
       </c>
       <c r="D89">
-        <v>-220.122995705652</v>
+        <v>-228.3798055002015</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.004238095238095237</v>
       </c>
       <c r="B90">
-        <v>-2.800483810845661</v>
+        <v>-3.613520920716373</v>
       </c>
       <c r="C90">
-        <v>241.668820789028</v>
+        <v>246.4992790337867</v>
       </c>
       <c r="D90">
-        <v>-230.460937849048</v>
+        <v>-231.1119654516595</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/PhaseVoltage3500.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage3500.xlsx
@@ -408,13 +408,13 @@
         <v>4.761904761904762e-05</v>
       </c>
       <c r="B2">
-        <v>3.594903743939087</v>
+        <v>2.709551233080962</v>
       </c>
       <c r="C2">
-        <v>233.331343054901</v>
+        <v>235.7888075699466</v>
       </c>
       <c r="D2">
-        <v>-248.2005763375292</v>
+        <v>-248.4220203261327</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>9.523809523809524e-05</v>
       </c>
       <c r="B3">
-        <v>14.67341724019917</v>
+        <v>15.04330545921098</v>
       </c>
       <c r="C3">
-        <v>225.4236839077792</v>
+        <v>225.3316259039847</v>
       </c>
       <c r="D3">
-        <v>-248.3236985475436</v>
+        <v>-245.8114015998384</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001428571428571429</v>
       </c>
       <c r="B4">
-        <v>43.41330928925621</v>
+        <v>44.76395846633209</v>
       </c>
       <c r="C4">
-        <v>211.0751370508238</v>
+        <v>206.9660368104027</v>
       </c>
       <c r="D4">
-        <v>-238.2391979938519</v>
+        <v>-235.9899971561483</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001904761904761905</v>
       </c>
       <c r="B5">
-        <v>79.11895124482308</v>
+        <v>80.40748401497308</v>
       </c>
       <c r="C5">
-        <v>173.6045923532299</v>
+        <v>179.0354208881628</v>
       </c>
       <c r="D5">
-        <v>-224.2456199396379</v>
+        <v>-227.5110228652044</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002380952380952381</v>
       </c>
       <c r="B6">
-        <v>103.3579099375413</v>
+        <v>101.5354829724816</v>
       </c>
       <c r="C6">
-        <v>148.1378821104323</v>
+        <v>149.0916171358349</v>
       </c>
       <c r="D6">
-        <v>-237.1214362475035</v>
+        <v>-234.1236078763914</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0002857142857142857</v>
       </c>
       <c r="B7">
-        <v>109.7867669342736</v>
+        <v>109.6187403436886</v>
       </c>
       <c r="C7">
-        <v>132.37451223688</v>
+        <v>130.8835319301271</v>
       </c>
       <c r="D7">
-        <v>-241.7519247442667</v>
+        <v>-239.5363236985486</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B8">
-        <v>116.2100246956756</v>
+        <v>119.2827318838962</v>
       </c>
       <c r="C8">
-        <v>124.6584381112839</v>
+        <v>125.1717495348108</v>
       </c>
       <c r="D8">
-        <v>-244.1252129950259</v>
+        <v>-248.4082889537191</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.000380952380952381</v>
       </c>
       <c r="B9">
-        <v>123.9009985787126</v>
+        <v>124.9641392076446</v>
       </c>
       <c r="C9">
-        <v>117.4157311675852</v>
+        <v>119.4066698098922</v>
       </c>
       <c r="D9">
-        <v>-244.6021211212721</v>
+        <v>-248.7063189735346</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0004285714285714287</v>
       </c>
       <c r="B10">
-        <v>131.8369828885747</v>
+        <v>130.9919262784597</v>
       </c>
       <c r="C10">
-        <v>108.9062606707897</v>
+        <v>109.8195102684776</v>
       </c>
       <c r="D10">
-        <v>-239.9755244641887</v>
+        <v>-240.6764702104066</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0004761904761904763</v>
       </c>
       <c r="B11">
-        <v>150.0575031048054</v>
+        <v>148.9968553089743</v>
       </c>
       <c r="C11">
-        <v>104.0220742431976</v>
+        <v>101.9135055035495</v>
       </c>
       <c r="D11">
-        <v>-240.7782892068601</v>
+        <v>-235.2451325333736</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0005238095238095239</v>
       </c>
       <c r="B12">
-        <v>176.3946477299289</v>
+        <v>179.1572633326923</v>
       </c>
       <c r="C12">
-        <v>77.70745347137613</v>
+        <v>80.62308865492314</v>
       </c>
       <c r="D12">
-        <v>-226.9546924968363</v>
+        <v>-228.3347030843753</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0005714285714285716</v>
       </c>
       <c r="B13">
-        <v>206.5589140110117</v>
+        <v>206.2301460617131</v>
       </c>
       <c r="C13">
-        <v>43.00986744917697</v>
+        <v>45.26436927434894</v>
       </c>
       <c r="D13">
-        <v>-235.0106444830764</v>
+        <v>-235.9295668719779</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0006190476190476192</v>
       </c>
       <c r="B14">
-        <v>228.01191758366</v>
+        <v>225.073322974661</v>
       </c>
       <c r="C14">
-        <v>14.7888708533956</v>
+        <v>15.36823194179166</v>
       </c>
       <c r="D14">
-        <v>-248.0495507558699</v>
+        <v>-245.1704823052642</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0006666666666666669</v>
       </c>
       <c r="B15">
-        <v>232.0655992292736</v>
+        <v>235.5162186072025</v>
       </c>
       <c r="C15">
-        <v>3.920792195343734</v>
+        <v>2.847899498929982</v>
       </c>
       <c r="D15">
-        <v>-246.4043101440132</v>
+        <v>-247.4083087302176</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0007142857142857145</v>
       </c>
       <c r="B16">
-        <v>244.7839899222045</v>
+        <v>248.2692343052194</v>
       </c>
       <c r="C16">
-        <v>0.06791716852756757</v>
+        <v>-0.04449287742382124</v>
       </c>
       <c r="D16">
-        <v>-245.6191463804078</v>
+        <v>-248.0737467335568</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0007619047619047621</v>
       </c>
       <c r="B17">
-        <v>246.8689372688532</v>
+        <v>247.6885324221882</v>
       </c>
       <c r="C17">
-        <v>-3.445998880820742</v>
+        <v>-2.689151766901293</v>
       </c>
       <c r="D17">
-        <v>-233.3748164776993</v>
+        <v>-235.673863072795</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0008095238095238098</v>
       </c>
       <c r="B18">
-        <v>248.7005442140158</v>
+        <v>245.2566520571518</v>
       </c>
       <c r="C18">
-        <v>-14.30278166625852</v>
+        <v>-14.87217093568367</v>
       </c>
       <c r="D18">
-        <v>-225.9440468855151</v>
+        <v>-225.3052885868177</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0008571428571428574</v>
       </c>
       <c r="B19">
-        <v>239.5984795160642</v>
+        <v>236.6397614071194</v>
       </c>
       <c r="C19">
-        <v>-43.18859632943796</v>
+        <v>-44.55824573539526</v>
       </c>
       <c r="D19">
-        <v>-210.9794443171785</v>
+        <v>-207.4012032242345</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0009047619047619051</v>
       </c>
       <c r="B20">
-        <v>226.0226226637006</v>
+        <v>228.4458868788969</v>
       </c>
       <c r="C20">
-        <v>-78.34034468511581</v>
+        <v>-80.48150435725098</v>
       </c>
       <c r="D20">
-        <v>-173.8185389210983</v>
+        <v>-179.1973203887441</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0009523809523809527</v>
       </c>
       <c r="B21">
-        <v>238.5158948565628</v>
+        <v>234.7370031346851</v>
       </c>
       <c r="C21">
-        <v>-103.1815953614824</v>
+        <v>-101.6649195317378</v>
       </c>
       <c r="D21">
-        <v>-148.8188720453475</v>
+        <v>-149.1040137455018</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.001</v>
       </c>
       <c r="B22">
-        <v>241.6510694646236</v>
+        <v>240.015962102246</v>
       </c>
       <c r="C22">
-        <v>-109.9368282791395</v>
+        <v>-109.5494570279142</v>
       </c>
       <c r="D22">
-        <v>-132.9704056518586</v>
+        <v>-131.0518295604633</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001047619047619048</v>
       </c>
       <c r="B23">
-        <v>244.1323228108455</v>
+        <v>248.4709517735822</v>
       </c>
       <c r="C23">
-        <v>-116.9026393714647</v>
+        <v>-119.3292869833933</v>
       </c>
       <c r="D23">
-        <v>-124.5992165114771</v>
+        <v>-125.2780980061184</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001095238095238096</v>
       </c>
       <c r="B24">
-        <v>245.6352623033635</v>
+        <v>248.4015134600805</v>
       </c>
       <c r="C24">
-        <v>-124.5997075175651</v>
+        <v>-125.0242943589797</v>
       </c>
       <c r="D24">
-        <v>-117.1698326608389</v>
+        <v>-119.259776304109</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.001142857142857143</v>
       </c>
       <c r="B25">
-        <v>240.8677082826186</v>
+        <v>240.9566018485779</v>
       </c>
       <c r="C25">
-        <v>-131.822210941159</v>
+        <v>-131.1740385524125</v>
       </c>
       <c r="D25">
-        <v>-108.9827870254564</v>
+        <v>-109.6741270270194</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001190476190476191</v>
       </c>
       <c r="B26">
-        <v>240.5276206869225</v>
+        <v>235.8301847888985</v>
       </c>
       <c r="C26">
-        <v>-149.2993398736213</v>
+        <v>-149.0936569141044</v>
       </c>
       <c r="D26">
-        <v>-104.3541513648246</v>
+        <v>-101.9525472192808</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001238095238095238</v>
       </c>
       <c r="B27">
-        <v>225.8207691661056</v>
+        <v>229.2047701361442</v>
       </c>
       <c r="C27">
-        <v>-175.823786844405</v>
+        <v>-179.2142479131379</v>
       </c>
       <c r="D27">
-        <v>-78.69516441782923</v>
+        <v>-80.73671174545487</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001285714285714286</v>
       </c>
       <c r="B28">
-        <v>235.1263752869395</v>
+        <v>236.9781452312851</v>
       </c>
       <c r="C28">
-        <v>-207.1215017842405</v>
+        <v>-206.674657067924</v>
       </c>
       <c r="D28">
-        <v>-43.288115997707</v>
+        <v>-45.18137858217239</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B29">
-        <v>249.4596769751276</v>
+        <v>245.5963439320033</v>
       </c>
       <c r="C29">
-        <v>-228.5249207795972</v>
+        <v>-225.4289638227339</v>
       </c>
       <c r="D29">
-        <v>-14.42823027445792</v>
+        <v>-15.18338646758328</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001380952380952381</v>
       </c>
       <c r="B30">
-        <v>247.7204979911551</v>
+        <v>247.4339451919832</v>
       </c>
       <c r="C30">
-        <v>-232.392650495243</v>
+        <v>-235.7383250394241</v>
       </c>
       <c r="D30">
-        <v>-3.571494717211215</v>
+        <v>-2.737755981825143</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001428571428571429</v>
       </c>
       <c r="B31">
-        <v>244.81183920956</v>
+        <v>247.8777588822416</v>
       </c>
       <c r="C31">
-        <v>-244.5609761567083</v>
+        <v>-248.1240247667847</v>
       </c>
       <c r="D31">
-        <v>0.07167552049415493</v>
+        <v>0.09352869452763923</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001476190476190477</v>
       </c>
       <c r="B32">
-        <v>230.9186203297764</v>
+        <v>235.2982821547539</v>
       </c>
       <c r="C32">
-        <v>-246.3491165888481</v>
+        <v>-247.6028421513136</v>
       </c>
       <c r="D32">
-        <v>3.276264039682106</v>
+        <v>2.739729586701614</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001523809523809524</v>
       </c>
       <c r="B33">
-        <v>224.8167989589744</v>
+        <v>224.8151817798351</v>
       </c>
       <c r="C33">
-        <v>-248.4817138460332</v>
+        <v>-245.2810745253332</v>
       </c>
       <c r="D33">
-        <v>14.02601093995363</v>
+        <v>14.9447767165805</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001571428571428572</v>
       </c>
       <c r="B34">
-        <v>211.7257706071694</v>
+        <v>207.0307590835508</v>
       </c>
       <c r="C34">
-        <v>-239.2067409355643</v>
+        <v>-236.5254160201928</v>
       </c>
       <c r="D34">
-        <v>43.16612143539366</v>
+        <v>44.47927602596935</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.00161904761904762</v>
       </c>
       <c r="B35">
-        <v>174.1201993016454</v>
+        <v>179.1634324284956</v>
       </c>
       <c r="C35">
-        <v>-224.8081482526327</v>
+        <v>-228.2359757526606</v>
       </c>
       <c r="D35">
-        <v>78.44511893742579</v>
+        <v>80.32414629491565</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B36">
-        <v>148.0051311563804</v>
+        <v>149.1837210365457</v>
       </c>
       <c r="C36">
-        <v>-237.5694048340193</v>
+        <v>-234.4599692078942</v>
       </c>
       <c r="D36">
-        <v>103.0631977058458</v>
+        <v>101.5664203921792</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001714285714285715</v>
       </c>
       <c r="B37">
-        <v>132.279969040477</v>
+        <v>131.009889422647</v>
       </c>
       <c r="C37">
-        <v>-241.8605878581497</v>
+        <v>-240.1163503861139</v>
       </c>
       <c r="D37">
-        <v>110.0488551057544</v>
+        <v>109.6367406896132</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001761904761904762</v>
       </c>
       <c r="B38">
-        <v>124.6562493627779</v>
+        <v>125.1709984418631</v>
       </c>
       <c r="C38">
-        <v>-244.0660096653676</v>
+        <v>-248.5693316645695</v>
       </c>
       <c r="D38">
-        <v>116.6807010309808</v>
+        <v>119.3687344983702</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.00180952380952381</v>
       </c>
       <c r="B39">
-        <v>117.7138418664277</v>
+        <v>119.4352985861137</v>
       </c>
       <c r="C39">
-        <v>-245.1552966624172</v>
+        <v>-248.7579011639398</v>
       </c>
       <c r="D39">
-        <v>124.4329325230716</v>
+        <v>125.1788585660577</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001857142857142858</v>
       </c>
       <c r="B40">
-        <v>109.1452539735376</v>
+        <v>109.6898095107195</v>
       </c>
       <c r="C40">
-        <v>-240.4508574248171</v>
+        <v>-240.3972429162626</v>
       </c>
       <c r="D40">
-        <v>131.7964189141891</v>
+        <v>130.9986063151627</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001904761904761905</v>
       </c>
       <c r="B41">
-        <v>104.4565673825042</v>
+        <v>101.9160835971191</v>
       </c>
       <c r="C41">
-        <v>-241.5066140740084</v>
+        <v>-235.3097561113635</v>
       </c>
       <c r="D41">
-        <v>149.9883173639454</v>
+        <v>149.0001649555341</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001952380952380953</v>
       </c>
       <c r="B42">
-        <v>78.08787848984366</v>
+        <v>80.73172075272508</v>
       </c>
       <c r="C42">
-        <v>-226.6205830357071</v>
+        <v>-228.6943186146518</v>
       </c>
       <c r="D42">
-        <v>176.4863378942074</v>
+        <v>179.2767199353634</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.002</v>
       </c>
       <c r="B43">
-        <v>43.01149515919915</v>
+        <v>45.401753576133</v>
       </c>
       <c r="C43">
-        <v>-235.4877284364707</v>
+        <v>-236.136635522973</v>
       </c>
       <c r="D43">
-        <v>207.4402956043308</v>
+        <v>206.7069616365236</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.002047619047619048</v>
       </c>
       <c r="B44">
-        <v>14.39417080919131</v>
+        <v>15.42570943520998</v>
       </c>
       <c r="C44">
-        <v>-249.3553319842704</v>
+        <v>-245.2166857711519</v>
       </c>
       <c r="D44">
-        <v>228.3715351409504</v>
+        <v>225.5947637209504</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.002095238095238096</v>
       </c>
       <c r="B45">
-        <v>3.621758470974124</v>
+        <v>2.866208900998771</v>
       </c>
       <c r="C45">
-        <v>-246.5018408208665</v>
+        <v>-247.6667000525438</v>
       </c>
       <c r="D45">
-        <v>231.0958195545216</v>
+        <v>236.2288298406135</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.002142857142857143</v>
       </c>
       <c r="B46">
-        <v>0.2371429354731253</v>
+        <v>-0.01305839046103485</v>
       </c>
       <c r="C46">
-        <v>-246.165136116764</v>
+        <v>-248.5215382689031</v>
       </c>
       <c r="D46">
-        <v>246.230042822589</v>
+        <v>249.0034318492307</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.002190476190476191</v>
       </c>
       <c r="B47">
-        <v>-3.604624577757398</v>
+        <v>-2.71867619128556</v>
       </c>
       <c r="C47">
-        <v>-233.3158664879883</v>
+        <v>-235.7678433748189</v>
       </c>
       <c r="D47">
-        <v>248.2006960534402</v>
+        <v>248.4180148212126</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.002238095238095239</v>
       </c>
       <c r="B48">
-        <v>-14.7003885089584</v>
+        <v>-15.07134614505932</v>
       </c>
       <c r="C48">
-        <v>-225.4227798249184</v>
+        <v>-225.3181519407185</v>
       </c>
       <c r="D48">
-        <v>248.3242206042992</v>
+        <v>245.8052149708246</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.002285714285714286</v>
       </c>
       <c r="B49">
-        <v>-43.46732244084016</v>
+        <v>-44.81973545627509</v>
       </c>
       <c r="C49">
-        <v>-211.0204399812611</v>
+        <v>-206.9282326157084</v>
       </c>
       <c r="D49">
-        <v>238.2080391021292</v>
+        <v>235.970778896463</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B50">
-        <v>-79.16320103488022</v>
+        <v>-80.44828377210246</v>
       </c>
       <c r="C50">
-        <v>-173.5620263104283</v>
+        <v>-178.9921529910962</v>
       </c>
       <c r="D50">
-        <v>224.2496707214804</v>
+        <v>227.5111091047649</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002380952380952382</v>
       </c>
       <c r="B51">
-        <v>-103.3809540631352</v>
+        <v>-101.5548272542985</v>
       </c>
       <c r="C51">
-        <v>-148.1073182468163</v>
+        <v>-149.0539444598109</v>
       </c>
       <c r="D51">
-        <v>237.1413253270462</v>
+        <v>234.1349230994431</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002428571428571429</v>
       </c>
       <c r="B52">
-        <v>-109.7882300868692</v>
+        <v>-109.6298940130127</v>
       </c>
       <c r="C52">
-        <v>-132.3577895144988</v>
+        <v>-130.8690329806774</v>
       </c>
       <c r="D52">
-        <v>241.7480744450215</v>
+        <v>239.5457831414595</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002476190476190477</v>
       </c>
       <c r="B53">
-        <v>-116.2250202413541</v>
+        <v>-119.2959649415046</v>
       </c>
       <c r="C53">
-        <v>-124.6535218192936</v>
+        <v>-125.1673227635126</v>
       </c>
       <c r="D53">
-        <v>244.1356994749495</v>
+        <v>248.420204156141</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002523809523809525</v>
       </c>
       <c r="B54">
-        <v>-123.9085251142171</v>
+        <v>-124.968388382817</v>
       </c>
       <c r="C54">
-        <v>-117.4004737533713</v>
+        <v>-119.3925232803617</v>
       </c>
       <c r="D54">
-        <v>244.5942081684134</v>
+        <v>248.6950554719358</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.002571428571428572</v>
       </c>
       <c r="B55">
-        <v>-131.8547622261841</v>
+        <v>-131.0084006254825</v>
       </c>
       <c r="C55">
-        <v>-108.8956819292918</v>
+        <v>-109.8095843855441</v>
       </c>
       <c r="D55">
-        <v>239.9709271938534</v>
+        <v>240.6687609101632</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.00261904761904762</v>
       </c>
       <c r="B56">
-        <v>-150.0913312184218</v>
+        <v>-149.032154166189</v>
       </c>
       <c r="C56">
-        <v>-104.0057260906816</v>
+        <v>-101.8931340753916</v>
       </c>
       <c r="D56">
-        <v>240.7716402536202</v>
+        <v>235.2322524959625</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B57">
-        <v>-176.432819079574</v>
+        <v>-179.2019605516452</v>
       </c>
       <c r="C57">
-        <v>-77.66032626572502</v>
+        <v>-80.58283527477811</v>
       </c>
       <c r="D57">
-        <v>226.9410438468441</v>
+        <v>228.3344356280106</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002714285714285715</v>
       </c>
       <c r="B58">
-        <v>-206.6039058024946</v>
+        <v>-206.2664386579215</v>
       </c>
       <c r="C58">
-        <v>-42.95839382510068</v>
+        <v>-45.20896442665845</v>
       </c>
       <c r="D58">
-        <v>235.0374176122476</v>
+        <v>235.9478341346044</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002761904761904763</v>
       </c>
       <c r="B59">
-        <v>-228.0228923933056</v>
+        <v>-225.087907500925</v>
       </c>
       <c r="C59">
-        <v>-14.76231433951383</v>
+        <v>-15.33958015444092</v>
       </c>
       <c r="D59">
-        <v>248.0553385460317</v>
+        <v>245.1761849991354</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.00280952380952381</v>
       </c>
       <c r="B60">
-        <v>-232.079819852531</v>
+        <v>-235.5380862684108</v>
       </c>
       <c r="C60">
-        <v>-3.911449152749422</v>
+        <v>-2.83837895812808</v>
       </c>
       <c r="D60">
-        <v>246.4022368201632</v>
+        <v>247.4127693206329</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002857142857142858</v>
       </c>
       <c r="B61">
-        <v>-244.796877414271</v>
+        <v>-248.2777151451786</v>
       </c>
       <c r="C61">
-        <v>-0.06549323148655195</v>
+        <v>0.04534859156669901</v>
       </c>
       <c r="D61">
-        <v>245.6083126756644</v>
+        <v>248.065698182869</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002904761904761906</v>
       </c>
       <c r="B62">
-        <v>-246.8690440850439</v>
+        <v>-247.6826505901903</v>
       </c>
       <c r="C62">
-        <v>3.454640260859426</v>
+        <v>2.697823875258132</v>
       </c>
       <c r="D62">
-        <v>233.3583972312951</v>
+        <v>235.6516613438709</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002952380952380953</v>
       </c>
       <c r="B63">
-        <v>-248.7047672621306</v>
+        <v>-245.2523107480349</v>
       </c>
       <c r="C63">
-        <v>14.32998773753545</v>
+        <v>14.90051860164987</v>
       </c>
       <c r="D63">
-        <v>225.9445938061733</v>
+        <v>225.2927295800928</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.003000000000000001</v>
       </c>
       <c r="B64">
-        <v>-239.5677730255741</v>
+        <v>-236.6219418146122</v>
       </c>
       <c r="C64">
-        <v>43.24238480109086</v>
+        <v>44.6142385119367</v>
       </c>
       <c r="D64">
-        <v>210.9235075804403</v>
+        <v>207.3635784965207</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.003047619047619049</v>
       </c>
       <c r="B65">
-        <v>-226.0264054073066</v>
+        <v>-228.4451101397574</v>
       </c>
       <c r="C65">
-        <v>78.38464402391429</v>
+        <v>80.52246495753201</v>
       </c>
       <c r="D65">
-        <v>173.7762540146916</v>
+        <v>179.1529876998092</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.003095238095238096</v>
       </c>
       <c r="B66">
-        <v>-238.5356950493239</v>
+        <v>-234.7506336036947</v>
       </c>
       <c r="C66">
-        <v>103.2058482705068</v>
+        <v>101.6853915432485</v>
       </c>
       <c r="D66">
-        <v>148.7904231396366</v>
+        <v>149.0686670392134</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.003142857142857144</v>
       </c>
       <c r="B67">
-        <v>-241.6463651904201</v>
+        <v>-240.0217081873741</v>
       </c>
       <c r="C67">
-        <v>109.9398267515395</v>
+        <v>109.5583476319055</v>
       </c>
       <c r="D67">
-        <v>132.9531284835434</v>
+        <v>131.0344833698028</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.003190476190476191</v>
       </c>
       <c r="B68">
-        <v>-244.1425547480471</v>
+        <v>-248.4826486619427</v>
       </c>
       <c r="C68">
-        <v>116.916541185707</v>
+        <v>119.343273401796</v>
       </c>
       <c r="D68">
-        <v>124.5925020651795</v>
+        <v>125.2743104656651</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.003238095238095239</v>
       </c>
       <c r="B69">
-        <v>-245.6277348153765</v>
+        <v>-248.3905312194861</v>
       </c>
       <c r="C69">
-        <v>124.6068730088479</v>
+        <v>125.0287117280348</v>
       </c>
       <c r="D69">
-        <v>117.1545889611875</v>
+        <v>119.2452253347922</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.003285714285714287</v>
       </c>
       <c r="B70">
-        <v>-240.8626445518112</v>
+        <v>-240.950373969108</v>
       </c>
       <c r="C70">
-        <v>131.8385897291399</v>
+        <v>131.191018641572</v>
       </c>
       <c r="D70">
-        <v>108.9728509776872</v>
+        <v>109.6649137596559</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.003333333333333334</v>
       </c>
       <c r="B71">
-        <v>-240.5202231459224</v>
+        <v>-235.8184616931306</v>
       </c>
       <c r="C71">
-        <v>149.333572180937</v>
+        <v>149.1296302558917</v>
       </c>
       <c r="D71">
-        <v>104.3393183081409</v>
+        <v>101.9330605893445</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.003380952380952382</v>
       </c>
       <c r="B72">
-        <v>-225.8049427844989</v>
+        <v>-229.2042200189509</v>
       </c>
       <c r="C72">
-        <v>175.8618967597075</v>
+        <v>179.2584301540006</v>
       </c>
       <c r="D72">
-        <v>78.64752789513881</v>
+        <v>80.69591231338171</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.00342857142857143</v>
       </c>
       <c r="B73">
-        <v>-235.1567119958977</v>
+        <v>-236.9963502507076</v>
       </c>
       <c r="C73">
-        <v>207.1675670972037</v>
+        <v>206.7115504988856</v>
       </c>
       <c r="D73">
-        <v>43.23497431094093</v>
+        <v>45.12541271241455</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.003476190476190477</v>
       </c>
       <c r="B74">
-        <v>-249.4658024217814</v>
+        <v>-245.6011720660783</v>
       </c>
       <c r="C74">
-        <v>228.5357572775746</v>
+        <v>225.443481061554</v>
       </c>
       <c r="D74">
-        <v>14.40165864294823</v>
+        <v>15.15506519822005</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.003523809523809525</v>
       </c>
       <c r="B75">
-        <v>-247.7163117981665</v>
+        <v>-247.4369673840736</v>
       </c>
       <c r="C75">
-        <v>232.4057494383982</v>
+        <v>235.7584113986246</v>
       </c>
       <c r="D75">
-        <v>3.562358074484795</v>
+        <v>2.728185219576518</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.003571428571428573</v>
       </c>
       <c r="B76">
-        <v>-244.7995283741392</v>
+        <v>-247.8702212176723</v>
       </c>
       <c r="C76">
-        <v>244.5741811307298</v>
+        <v>248.1332480365734</v>
       </c>
       <c r="D76">
-        <v>-0.07392503114787841</v>
+        <v>-0.09456087220013898</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.00361904761904762</v>
       </c>
       <c r="B77">
-        <v>-230.9008030255541</v>
+        <v>-235.277241288128</v>
       </c>
       <c r="C77">
-        <v>246.3492838865955</v>
+        <v>247.5987022417116</v>
       </c>
       <c r="D77">
-        <v>-3.284524854686721</v>
+        <v>-2.748981232817346</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.003666666666666668</v>
       </c>
       <c r="B78">
-        <v>-224.8185893609291</v>
+        <v>-224.8020243303394</v>
       </c>
       <c r="C78">
-        <v>248.4841550836566</v>
+        <v>245.2760787840712</v>
       </c>
       <c r="D78">
-        <v>-14.05225467360376</v>
+        <v>-14.97264982716427</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.003714285714285716</v>
       </c>
       <c r="B79">
-        <v>-211.6736179887519</v>
+        <v>-206.992765141018</v>
       </c>
       <c r="C79">
-        <v>239.1774900942978</v>
+        <v>236.5066166812807</v>
       </c>
       <c r="D79">
-        <v>-43.22077058996475</v>
+        <v>-44.53470049836095</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.003761904761904763</v>
       </c>
       <c r="B80">
-        <v>-174.075569696031</v>
+        <v>-179.1187481358478</v>
       </c>
       <c r="C80">
-        <v>224.8105476500799</v>
+        <v>228.2338129750125</v>
       </c>
       <c r="D80">
-        <v>-78.48980881564472</v>
+        <v>-80.36450810210927</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.003809523809523811</v>
       </c>
       <c r="B81">
-        <v>-147.9761695744851</v>
+        <v>-149.1478797138818</v>
       </c>
       <c r="C81">
-        <v>237.5914600497139</v>
+        <v>234.4734457393353</v>
       </c>
       <c r="D81">
-        <v>-103.0879092383769</v>
+        <v>-101.5871691533955</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003857142857142858</v>
       </c>
       <c r="B82">
-        <v>-132.2623338106292</v>
+        <v>-130.9936047536231</v>
       </c>
       <c r="C82">
-        <v>241.8548177012498</v>
+        <v>240.1243270858305</v>
       </c>
       <c r="D82">
-        <v>-110.0507712226948</v>
+        <v>-109.646803346504</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003904761904761906</v>
       </c>
       <c r="B83">
-        <v>-124.651554105089</v>
+        <v>-125.1677169461502</v>
       </c>
       <c r="C83">
-        <v>244.0765940158531</v>
+        <v>248.5815525518632</v>
       </c>
       <c r="D83">
-        <v>-116.6950682257748</v>
+        <v>-119.383229718598</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.003952380952380954</v>
       </c>
       <c r="B84">
-        <v>-117.6985638186612</v>
+        <v>-119.4200591784968</v>
       </c>
       <c r="C84">
-        <v>245.1469507943096</v>
+        <v>248.7451406907565</v>
       </c>
       <c r="D84">
-        <v>-124.4398968115927</v>
+        <v>-125.1820986915983</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.004000000000000001</v>
       </c>
       <c r="B85">
-        <v>-109.1348614588359</v>
+        <v>-109.6796378610857</v>
       </c>
       <c r="C85">
-        <v>240.447312909236</v>
+        <v>240.389232302473</v>
       </c>
       <c r="D85">
-        <v>-131.8136622980873</v>
+        <v>-131.0142114372588</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.004047619047619048</v>
       </c>
       <c r="B86">
-        <v>-104.440931689518</v>
+        <v>-101.8970992810231</v>
       </c>
       <c r="C86">
-        <v>241.4995194707652</v>
+        <v>235.298828609736</v>
       </c>
       <c r="D86">
-        <v>-150.0224271275617</v>
+        <v>-149.0367744819587</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.004095238095238095</v>
       </c>
       <c r="B87">
-        <v>-78.04017224188671</v>
+        <v>-80.69102142654279</v>
       </c>
       <c r="C87">
-        <v>226.6065997946364</v>
+        <v>228.6940183048615</v>
       </c>
       <c r="D87">
-        <v>-176.5259794280304</v>
+        <v>-179.3219778577404</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.004142857142857143</v>
       </c>
       <c r="B88">
-        <v>-42.95881257484715</v>
+        <v>-45.3466077026915</v>
       </c>
       <c r="C88">
-        <v>235.5163683310305</v>
+        <v>236.1549893969335</v>
       </c>
       <c r="D88">
-        <v>-207.4851390230879</v>
+        <v>-206.7439226863974</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.00419047619047619</v>
       </c>
       <c r="B89">
-        <v>-14.36740254971695</v>
+        <v>-15.39690992287408</v>
       </c>
       <c r="C89">
-        <v>249.3598513727945</v>
+        <v>245.2211267186986</v>
       </c>
       <c r="D89">
-        <v>-228.3798055002015</v>
+        <v>-225.6080585153332</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.004238095238095237</v>
       </c>
       <c r="B90">
-        <v>-3.613520920716373</v>
+        <v>-2.856938252224009</v>
       </c>
       <c r="C90">
-        <v>246.4992790337867</v>
+        <v>247.6721021027134</v>
       </c>
       <c r="D90">
-        <v>-231.1119654516595</v>
+        <v>-236.2513014629658</v>
       </c>
     </row>
   </sheetData>
